--- a/tut05/output/0501EE26.xlsx
+++ b/tut05/output/0501EE26.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.551020408163265</v>
+        <v>7.55</v>
       </c>
       <c r="C6" t="n">
-        <v>7.295454545454546</v>
+        <v>7.3</v>
       </c>
       <c r="D6" t="n">
-        <v>7.695652173913044</v>
+        <v>7.7</v>
       </c>
       <c r="E6" t="n">
-        <v>8.608695652173912</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8.384615384615385</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>8.125</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>8.744186046511627</v>
+        <v>8.74</v>
       </c>
       <c r="I6" t="n">
-        <v>9.210526315789474</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.551020408163265</v>
+        <v>7.55</v>
       </c>
       <c r="C8" t="n">
-        <v>7.43010752688172</v>
+        <v>7.43</v>
       </c>
       <c r="D8" t="n">
-        <v>7.517985611510792</v>
+        <v>7.52</v>
       </c>
       <c r="E8" t="n">
-        <v>7.789189189189189</v>
+        <v>7.79</v>
       </c>
       <c r="F8" t="n">
-        <v>7.892857142857143</v>
+        <v>7.89</v>
       </c>
       <c r="G8" t="n">
-        <v>7.928030303030303</v>
+        <v>7.93</v>
       </c>
       <c r="H8" t="n">
-        <v>8.042345276872965</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.171014492753622</v>
+        <v>8.17</v>
       </c>
     </row>
   </sheetData>
